--- a/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
+++ b/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.m.krauter\Documents\Ranorex\RanorexStudio Projects\Service Portal Regression STG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB84DA9-6D97-4DD1-9D5F-B903BDFCD418}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1A26F-83DC-400F-94DE-5EFECDFC2068}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18900" windowHeight="10920" xr2:uid="{AB5EC813-496F-4893-BA19-9279062A5366}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{AB5EC813-496F-4893-BA19-9279062A5366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Domestic Grantor Username</t>
   </si>
@@ -61,6 +61,54 @@
   </si>
   <si>
     <t>GuntherC</t>
+  </si>
+  <si>
+    <t>RPM Grantee Username</t>
+  </si>
+  <si>
+    <t>RPM Grantee Password</t>
+  </si>
+  <si>
+    <t>MonicaG</t>
+  </si>
+  <si>
+    <t>RPM Grantee WM</t>
+  </si>
+  <si>
+    <t>RPM Grantor WM</t>
+  </si>
+  <si>
+    <t>Domestic Grantee WM</t>
+  </si>
+  <si>
+    <t>Domestic Grantor WM</t>
+  </si>
+  <si>
+    <t>Hi, Joey Tribbiani!</t>
+  </si>
+  <si>
+    <t>Hi, Rachel Green!</t>
+  </si>
+  <si>
+    <t>Hi, Gunther Central-Perk!</t>
+  </si>
+  <si>
+    <t>Hi, Monica Geller!</t>
+  </si>
+  <si>
+    <t>ChandlerB</t>
+  </si>
+  <si>
+    <t>RPM Admin Username</t>
+  </si>
+  <si>
+    <t>RPM Admin Password</t>
+  </si>
+  <si>
+    <t>RPM Admin WM</t>
+  </si>
+  <si>
+    <t>Hi, Chandler Bing!</t>
   </si>
 </sst>
 </file>
@@ -412,23 +460,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AC297F-43AF-4CDD-B938-8B43B5BDE0FF}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,19 +493,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -456,16 +540,43 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
+++ b/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.m.krauter\Documents\Ranorex\RanorexStudio Projects\Service Portal Regression STG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1A26F-83DC-400F-94DE-5EFECDFC2068}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6C086-999C-486F-8439-DBBEE603B705}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{AB5EC813-496F-4893-BA19-9279062A5366}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Domestic Grantor Username</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Hi, Chandler Bing!</t>
+  </si>
+  <si>
+    <t>OS Grantor Password</t>
+  </si>
+  <si>
+    <t>OS Grantor Username</t>
+  </si>
+  <si>
+    <t>OS Grantor WM</t>
+  </si>
+  <si>
+    <t>FrankB</t>
+  </si>
+  <si>
+    <t>Hi, Frank Buffay!</t>
   </si>
 </sst>
 </file>
@@ -460,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AC297F-43AF-4CDD-B938-8B43B5BDE0FF}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +498,12 @@
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +549,17 @@
       <c r="O1" t="s">
         <v>24</v>
       </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -577,6 +604,15 @@
       </c>
       <c r="O2" t="s">
         <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
+++ b/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.m.krauter\Documents\Ranorex\RanorexStudio Projects\Service Portal Regression STG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6C086-999C-486F-8439-DBBEE603B705}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1565F18A-110E-40DC-BF58-1EB26A47D44D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{AB5EC813-496F-4893-BA19-9279062A5366}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Domestic Grantor Username</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>Hi, Frank Buffay!</t>
+  </si>
+  <si>
+    <t>OS Grantee Username</t>
+  </si>
+  <si>
+    <t>OS Grantee Password</t>
+  </si>
+  <si>
+    <t>OS Grantee WM</t>
+  </si>
+  <si>
+    <t>Hi, Phoebe Buffay!</t>
+  </si>
+  <si>
+    <t>PhoebeB</t>
+  </si>
+  <si>
+    <t>OSDS Grantor Username</t>
+  </si>
+  <si>
+    <t>OSDS Grantor Password</t>
+  </si>
+  <si>
+    <t>OSDS Grantor WM</t>
   </si>
 </sst>
 </file>
@@ -139,15 +163,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,12 +191,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,145 +531,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AC297F-43AF-4CDD-B938-8B43B5BDE0FF}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="S2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
+++ b/Data/1.01-1.xx_Grants_HomePage_TilesHeaderFooter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.m.krauter\Documents\Ranorex\RanorexStudio Projects\Service Portal Regression STG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1565F18A-110E-40DC-BF58-1EB26A47D44D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54384DAE-8542-435C-9550-9D9003ED2256}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{AB5EC813-496F-4893-BA19-9279062A5366}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Domestic Grantor Username</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>OSDS Grantor WM</t>
+  </si>
+  <si>
+    <t>MikeH</t>
+  </si>
+  <si>
+    <t>Hi, Mike Hannigan!</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,9 +709,15 @@
       <c r="U2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
